--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57340.52049353009</v>
+        <v>-59778.99359327751</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>224.4901720060319</v>
       </c>
       <c r="H2" t="n">
-        <v>105.1608325671499</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>122.2230493270032</v>
+        <v>98.59578826637373</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.98153210089474</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>169.6978734209706</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.49442595689477</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>237.743922003781</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>157.2310298454535</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>7.57459922244825</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>101.1023832709091</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>48.52634901049003</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>148.7357651352524</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>65.56423921895126</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>281.2250499486432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3391137331265</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>213.4983646675373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>180.438871079516</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756226</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>140.9399954524546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>119.3168020713731</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>139.3687739767481</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3949,13 +3949,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.059233182686</v>
+        <v>1771.064485421759</v>
       </c>
       <c r="C2" t="n">
-        <v>1357.059233182686</v>
+        <v>1402.101968481348</v>
       </c>
       <c r="D2" t="n">
-        <v>998.7935345759358</v>
+        <v>1043.836269874597</v>
       </c>
       <c r="E2" t="n">
-        <v>998.7935345759358</v>
+        <v>1043.836269874597</v>
       </c>
       <c r="F2" t="n">
-        <v>587.8076297863282</v>
+        <v>632.8503650849898</v>
       </c>
       <c r="G2" t="n">
-        <v>172.7351796313247</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3091.857527553434</v>
+        <v>3115.723447816696</v>
       </c>
       <c r="U2" t="n">
-        <v>2838.32705082727</v>
+        <v>2862.192971090532</v>
       </c>
       <c r="V2" t="n">
-        <v>2507.2641634837</v>
+        <v>2531.130083746961</v>
       </c>
       <c r="W2" t="n">
-        <v>2507.2641634837</v>
+        <v>2531.130083746961</v>
       </c>
       <c r="X2" t="n">
-        <v>2133.79840522262</v>
+        <v>2157.664325485881</v>
       </c>
       <c r="Y2" t="n">
-        <v>1743.659073246808</v>
+        <v>2157.664325485881</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.0765981364616</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C4" t="n">
-        <v>584.1404152085547</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D4" t="n">
-        <v>434.023775796219</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>286.1106822138258</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>139.2207347159155</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.507193008249</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.517642110231</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.7250629667013</v>
+        <v>604.8580214762837</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4714,25 +4714,25 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1678.644868779906</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1389.542001905549</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.857513699662</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4403436627018</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4403436627018</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.178203944122</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.21568700371</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>900.94998839696</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>515.1617357987157</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>508.2162350495122</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2706.790414642315</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269324</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008244</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008244</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,37 +4896,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1495.540060071582</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1206.437193197225</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>951.7527049913385</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>662.3355349543779</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>662.3355349543779</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>615.8410452503712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>468.9510977524608</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>301.7549984673407</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>160.0431673095388</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1399.536196722681</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1171.546645824663</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.7540666811333</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1944.661001050011</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1689.976512844124</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1400.559342807163</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.569791909146</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.777212765616</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.655893893758</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7597,10 +7597,10 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
         <v>1491.508541327549</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>186.4315536474215</v>
       </c>
       <c r="H2" t="n">
-        <v>189.4469318201706</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>48.88677993112421</v>
       </c>
     </row>
     <row r="5">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856704</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>15.70159709961428</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>5.297948387947827</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>32.90770736550135</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.68610972170688</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0.5874149221286302</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516657</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>111.1976478713734</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>61.70948393027153</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26338,13 +26338,13 @@
         <v>322858.6398760023</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551172</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.0152055166</v>
+        <v>49629.01520551667</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,13 +26433,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26448,7 +26448,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1187713.935715033</v>
+        <v>-1187900.329103572</v>
       </c>
       <c r="C6" t="n">
-        <v>128298.8684661383</v>
+        <v>128298.8684661382</v>
       </c>
       <c r="D6" t="n">
-        <v>128298.868466138</v>
+        <v>128298.8684661382</v>
       </c>
       <c r="E6" t="n">
-        <v>-116673.2159020899</v>
+        <v>-116707.9538275259</v>
       </c>
       <c r="F6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798293</v>
       </c>
       <c r="G6" t="n">
-        <v>208739.245905265</v>
+        <v>208704.507979829</v>
       </c>
       <c r="H6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="I6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="J6" t="n">
-        <v>-8791.956492012687</v>
+        <v>-8826.694417448423</v>
       </c>
       <c r="K6" t="n">
-        <v>208739.2459052648</v>
+        <v>208704.507979829</v>
       </c>
       <c r="L6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.507979829</v>
       </c>
       <c r="M6" t="n">
-        <v>123684.217969753</v>
+        <v>123649.4800443175</v>
       </c>
       <c r="N6" t="n">
-        <v>208739.2459052648</v>
+        <v>208704.5079798291</v>
       </c>
       <c r="O6" t="n">
-        <v>208739.2459052648</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="P6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798291</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973553</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973553</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973553</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>81.694920812617</v>
+        <v>105.3221818732464</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.04427615813348</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.2394157065858</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>111.497046713632</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>62.3179194307157</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.5630441013797</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>309.8193423825444</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>279.2259094596449</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>70.8131841409168</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31841,25 +31841,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
